--- a/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_per_day_fixed_period_5_square_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_per_day_fixed_period_5_square_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.21000000000035</v>
+        <v>24.40000000000038</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0002471506368809662</v>
+        <v>0.003285126899310598</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0002471506368809662</v>
+        <v>0.003285126899310598</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>47.39430477478107</v>
+        <v>43.39236601246055</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[22.549695179941054, 72.23891436962109]</t>
+          <t>[11.492355581141979, 75.29237644377912]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.0003797494297348436</v>
+        <v>0.008784053259975666</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0003797494297348436</v>
+        <v>0.008784053259975666</v>
       </c>
       <c r="P2" t="n">
-        <v>1.50318447288881</v>
+        <v>1.880552959806502</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.8616580451287321, 2.144710900648888]</t>
+          <t>[1.0251843894597323, 2.7359215301532727]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>2.327630216303334e-05</v>
+        <v>6.005660223218356e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>2.327630216303334e-05</v>
+        <v>6.005660223218356e-05</v>
       </c>
       <c r="T2" t="n">
-        <v>64.31801985816966</v>
+        <v>67.75594785706234</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[49.19810125490213, 79.4379384614372]</t>
+          <t>[50.511389023703096, 85.00050669042159]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>5.219624732433203e-11</v>
+        <v>4.605109626965032e-10</v>
       </c>
       <c r="W2" t="n">
-        <v>5.219624732433203e-11</v>
+        <v>4.605109626965032e-10</v>
       </c>
       <c r="X2" t="n">
-        <v>18.41801801801828</v>
+        <v>17.09709709709736</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.94612612612635</v>
+        <v>13.77537537537559</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.88990990991021</v>
+        <v>20.41881881881913</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.21000000000035</v>
+        <v>24.40000000000038</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0001504056096429673</v>
+        <v>0.0001672739146648672</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0001504056096429673</v>
+        <v>0.0001672739146648672</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>49.06585118608643</v>
+        <v>46.61647243992373</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[21.41139834666312, 76.72030402550973]</t>
+          <t>[23.836987983325443, 69.39595689652202]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.0008541367098586772</v>
+        <v>0.0001593905079297908</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0008541367098586772</v>
+        <v>0.0001593905079297908</v>
       </c>
       <c r="P3" t="n">
-        <v>1.13839493553504</v>
+        <v>1.540921321580579</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.5220264069028087, 1.7547634641672722]</t>
+          <t>[0.8868159442565782, 2.19502669890458]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.0005508292117883951</v>
+        <v>2.140964956409697e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0005508292117883951</v>
+        <v>2.140964956409697e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>64.48832574332316</v>
+        <v>65.54795912818111</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[49.4117085007435, 79.56494298590282]</t>
+          <t>[51.02596763827751, 80.0699506180847]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>4.465450231805335e-11</v>
+        <v>9.428013925116829e-12</v>
       </c>
       <c r="W3" t="n">
-        <v>4.465450231805335e-11</v>
+        <v>9.428013925116829e-12</v>
       </c>
       <c r="X3" t="n">
-        <v>19.82360360360389</v>
+        <v>18.4160160160163</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.44864864864889</v>
+        <v>15.87587587587612</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.19855855855888</v>
+        <v>20.95615615615648</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.21000000000035</v>
+        <v>24.40000000000038</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0003381584264161575</v>
+        <v>0.0006593582691563071</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0003381584264161575</v>
+        <v>0.0006593582691563071</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>50.59469185837702</v>
+        <v>50.71990756660643</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[21.408241207383156, 79.78114250937088]</t>
+          <t>[20.762409712208594, 80.67740542100427]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.00108851289941736</v>
+        <v>0.001381100063252649</v>
       </c>
       <c r="O4" t="n">
-        <v>0.00108851289941736</v>
+        <v>0.001381100063252649</v>
       </c>
       <c r="P4" t="n">
-        <v>1.213868632918579</v>
+        <v>1.729605565039425</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.5471843060306538, 1.8805529598065034]</t>
+          <t>[1.0126054398958084, 2.446605690183042]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.0006456867186992454</v>
+        <v>1.470907300338276e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0006456867186992454</v>
+        <v>1.470907300338276e-05</v>
       </c>
       <c r="T4" t="n">
-        <v>66.14838978858829</v>
+        <v>73.15109331207299</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[49.65794615237071, 82.63883342480587]</t>
+          <t>[55.647963566725096, 90.65422305742088]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.644238161764179e-10</v>
+        <v>8.573475263062846e-11</v>
       </c>
       <c r="W4" t="n">
-        <v>2.644238161764179e-10</v>
+        <v>8.573475263062846e-11</v>
       </c>
       <c r="X4" t="n">
-        <v>19.53279279279307</v>
+        <v>17.68328328328356</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.9639639639642</v>
+        <v>14.89889889889913</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.10162162162194</v>
+        <v>20.46766766766799</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.21000000000035</v>
+        <v>24.40000000000038</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>5.286317565911247e-07</v>
+        <v>3.635254332112758e-06</v>
       </c>
       <c r="I5" t="n">
-        <v>5.286317565911247e-07</v>
+        <v>3.635254332112758e-06</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>63.99960557604512</v>
+        <v>56.1577318512937</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[39.17393001207789, 88.82528114001235]</t>
+          <t>[31.703318177992983, 80.61214552459441]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>4.837031475357634e-06</v>
+        <v>3.16741993040548e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>4.837031475357634e-06</v>
+        <v>3.16741993040548e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>1.352237078121733</v>
+        <v>1.314500229429964</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.8868159442565782, 1.8176582119868874]</t>
+          <t>[0.8239211964369622, 1.8050792624229652]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>5.179672952770886e-07</v>
+        <v>2.429622063093717e-06</v>
       </c>
       <c r="S5" t="n">
-        <v>5.179672952770886e-07</v>
+        <v>2.429622063093717e-06</v>
       </c>
       <c r="T5" t="n">
-        <v>68.85957710247357</v>
+        <v>62.31630113018866</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[54.49867551355239, 83.22047869139473]</t>
+          <t>[48.417631016549834, 76.21497124382748]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.531663684772866e-12</v>
+        <v>1.147659745015517e-11</v>
       </c>
       <c r="W5" t="n">
-        <v>1.531663684772866e-12</v>
+        <v>1.147659745015517e-11</v>
       </c>
       <c r="X5" t="n">
-        <v>18.99963963963991</v>
+        <v>19.29529529529559</v>
       </c>
       <c r="Y5" t="n">
-        <v>17.20630630630655</v>
+        <v>17.39019019019045</v>
       </c>
       <c r="Z5" t="n">
-        <v>20.79297297297327</v>
+        <v>21.20040040040073</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.21000000000035</v>
+        <v>24.40000000000038</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001115358142944833</v>
+        <v>1.321969988021809e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001115358142944833</v>
+        <v>1.321969988021809e-05</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>45.86545901575367</v>
+        <v>55.02580616651166</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[18.094786348892214, 73.63613168261513]</t>
+          <t>[28.7230499978985, 81.32856233512483]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.001758322753828034</v>
+        <v>0.0001192583140161574</v>
       </c>
       <c r="O6" t="n">
-        <v>0.001758322753828034</v>
+        <v>0.0001192583140161574</v>
       </c>
       <c r="P6" t="n">
-        <v>1.704447665911579</v>
+        <v>1.239026532046425</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.9497106920761924, 2.459184639746966]</t>
+          <t>[0.6855527512338089, 1.7925003128590404]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>4.066732860952271e-05</v>
+        <v>4.625540243385906e-05</v>
       </c>
       <c r="S6" t="n">
-        <v>4.066732860952271e-05</v>
+        <v>4.625540243385906e-05</v>
       </c>
       <c r="T6" t="n">
-        <v>59.98296628506217</v>
+        <v>70.47888750646381</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[43.52846573339973, 76.43746683672461]</t>
+          <t>[55.88685997199127, 85.07091504093634]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>3.176245710889702e-09</v>
+        <v>1.224575996161548e-12</v>
       </c>
       <c r="W6" t="n">
-        <v>3.176245710889702e-09</v>
+        <v>1.224575996161548e-12</v>
       </c>
       <c r="X6" t="n">
-        <v>17.64252252252277</v>
+        <v>19.58838838838869</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.73441441441462</v>
+        <v>17.43903903903931</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.55063063063093</v>
+        <v>21.73773773773807</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.21000000000035</v>
+        <v>24.40000000000038</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1014820197784956</v>
+        <v>7.706265641171939e-07</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1014820197784956</v>
+        <v>7.706265641171939e-07</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>24.12111858520704</v>
+        <v>58.91559735725257</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-3.648724814524293, 51.89096198493838]</t>
+          <t>[34.38365264197006, 83.44754207253507]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.08702790925614856</v>
+        <v>1.579460789691289e-05</v>
       </c>
       <c r="O7" t="n">
-        <v>0.08702790925614856</v>
+        <v>1.579460789691289e-05</v>
       </c>
       <c r="P7" t="n">
-        <v>1.37739497724958</v>
+        <v>1.062921238151501</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.2704474156243446, 3.025237370123504]</t>
+          <t>[0.6100790538502698, 1.515763422452733]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.09919566635705102</v>
+        <v>2.265579905924575e-05</v>
       </c>
       <c r="S7" t="n">
-        <v>0.09919566635705102</v>
+        <v>2.265579905924575e-05</v>
       </c>
       <c r="T7" t="n">
-        <v>63.95432820053884</v>
+        <v>66.11476818162085</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[48.262273940027924, 79.64638246104975]</t>
+          <t>[52.682081571134745, 79.54745479210695]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.71644032320728e-10</v>
+        <v>6.825651155395462e-13</v>
       </c>
       <c r="W7" t="n">
-        <v>1.71644032320728e-10</v>
+        <v>6.825651155395462e-13</v>
       </c>
       <c r="X7" t="n">
-        <v>18.90270270270297</v>
+        <v>20.27227227227258</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.55333333333352</v>
+        <v>18.513713713714</v>
       </c>
       <c r="Z7" t="n">
-        <v>25.25207207207243</v>
+        <v>22.03083083083117</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.21000000000035</v>
+        <v>24.40000000000038</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>7.419108736139712e-06</v>
+        <v>0.002383904124362068</v>
       </c>
       <c r="I8" t="n">
-        <v>7.419108736139712e-06</v>
+        <v>0.002383904124362068</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>59.84720762093175</v>
+        <v>47.56572218281276</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[32.53256979613259, 87.1618454457309]</t>
+          <t>[13.153544339993758, 81.97790002563175]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>6.305104952586404e-05</v>
+        <v>0.007825448881497499</v>
       </c>
       <c r="O8" t="n">
-        <v>6.305104952586404e-05</v>
+        <v>0.007825448881497499</v>
       </c>
       <c r="P8" t="n">
-        <v>1.17613178422681</v>
+        <v>1.13839493553504</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.672973801669885, 1.679289766783734]</t>
+          <t>[0.39623691126357663, 1.8805529598065043]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.416010445172034e-05</v>
+        <v>0.003432684594046886</v>
       </c>
       <c r="S8" t="n">
-        <v>2.416010445172034e-05</v>
+        <v>0.003432684594046886</v>
       </c>
       <c r="T8" t="n">
-        <v>60.61832693303766</v>
+        <v>66.8334712378827</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[45.29482697987612, 75.9418268861992]</t>
+          <t>[48.56870198225353, 85.09824049351188]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>3.842497431350012e-10</v>
+        <v>2.890786943154922e-09</v>
       </c>
       <c r="W8" t="n">
-        <v>3.842497431350012e-10</v>
+        <v>2.890786943154922e-09</v>
       </c>
       <c r="X8" t="n">
-        <v>19.67819819819848</v>
+        <v>19.97917917917949</v>
       </c>
       <c r="Y8" t="n">
-        <v>17.73945945945971</v>
+        <v>17.09709709709735</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.61693693693725</v>
+        <v>22.86126126126162</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.21000000000035</v>
+        <v>24.40000000000038</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>5.206849963212967e-05</v>
+        <v>1.540048131032368e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>5.206849963212967e-05</v>
+        <v>1.540048131032368e-05</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>57.11040051908179</v>
+        <v>60.96977595334259</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[25.503666143174783, 88.7171348949888]</t>
+          <t>[32.602963672621, 89.33658823406418]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.0007020154024717229</v>
+        <v>8.255989257954788e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0007020154024717229</v>
+        <v>8.255989257954788e-05</v>
       </c>
       <c r="P9" t="n">
-        <v>0.823921196436963</v>
+        <v>1.30192127986604</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.30818426431611545, 1.3396581285578106]</t>
+          <t>[0.77360539818127, 1.8302371615508095]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.002397594433127148</v>
+        <v>1.039288650894754e-05</v>
       </c>
       <c r="S9" t="n">
-        <v>0.002397594433127148</v>
+        <v>1.039288650894754e-05</v>
       </c>
       <c r="T9" t="n">
-        <v>76.39447656637341</v>
+        <v>70.68859637873781</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[60.06187448898405, 92.72707864376278]</t>
+          <t>[54.37047774591892, 87.00671501155671]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>3.258060488064984e-12</v>
+        <v>3.112177182629239e-11</v>
       </c>
       <c r="W9" t="n">
-        <v>3.258060488064984e-12</v>
+        <v>3.112177182629239e-11</v>
       </c>
       <c r="X9" t="n">
-        <v>21.03531531531561</v>
+        <v>19.34414414414444</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.04810810810838</v>
+        <v>17.29249249249276</v>
       </c>
       <c r="Z9" t="n">
-        <v>23.02252252252285</v>
+        <v>21.39579579579613</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.21000000000035</v>
+        <v>24.40000000000038</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>6.20274398743792e-06</v>
+        <v>9.576862215288084e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>6.20274398743792e-06</v>
+        <v>9.576862215288084e-05</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>61.96036705984881</v>
+        <v>66.93069013852751</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[32.887065769805844, 91.03366834989178]</t>
+          <t>[27.68252613348865, 106.17885414356637]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>9.279449401633499e-05</v>
+        <v>0.001285293742564475</v>
       </c>
       <c r="O10" t="n">
-        <v>9.279449401633499e-05</v>
+        <v>0.001285293742564475</v>
       </c>
       <c r="P10" t="n">
-        <v>1.075500187715424</v>
+        <v>0.7736053981812701</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.5723422051585008, 1.5786581702723481]</t>
+          <t>[0.24528951649650033, 1.3019212798660398]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>8.90975791187909e-05</v>
+        <v>0.00503878234703703</v>
       </c>
       <c r="S10" t="n">
-        <v>8.90975791187909e-05</v>
+        <v>0.00503878234703703</v>
       </c>
       <c r="T10" t="n">
-        <v>70.00968507474566</v>
+        <v>77.32097978681492</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[54.304824856909285, 85.71454529258205]</t>
+          <t>[57.455430747217775, 97.18652882641206]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.358713141996759e-11</v>
+        <v>5.912093037352406e-10</v>
       </c>
       <c r="W10" t="n">
-        <v>1.358713141996759e-11</v>
+        <v>5.912093037352406e-10</v>
       </c>
       <c r="X10" t="n">
-        <v>20.06594594594623</v>
+        <v>21.39579579579613</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.12720720720747</v>
+        <v>19.34414414414444</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.004684684685</v>
+        <v>23.44744744744781</v>
       </c>
     </row>
     <row r="11">
@@ -1339,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.57000000000056</v>
+        <v>25.16000000000049</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001745426050789756</v>
+        <v>1.302056019314435e-05</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001745426050789756</v>
+        <v>1.302056019314435e-05</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>52.91947866172129</v>
+        <v>60.27153630326009</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[15.882372581910275, 89.9565847415323]</t>
+          <t>[30.534505680421972, 90.00856692609821]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.006104871451257043</v>
+        <v>0.0001804371755373957</v>
       </c>
       <c r="O11" t="n">
-        <v>0.006104871451257043</v>
+        <v>0.0001804371755373957</v>
       </c>
       <c r="P11" t="n">
-        <v>0.5220264069028087</v>
+        <v>0.5975001042863477</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.1823947686768843, 1.2264475824825016]</t>
+          <t>[0.081763172165501, 1.1132370364071944]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.1425217550699369</v>
+        <v>0.02415399698355269</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1425217550699369</v>
+        <v>0.02415399698355269</v>
       </c>
       <c r="T11" t="n">
-        <v>65.71434121952545</v>
+        <v>66.97466300657905</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[46.585319383715884, 84.84336305533502]</t>
+          <t>[51.36029852653053, 82.58902748662757]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.343360311878428e-08</v>
+        <v>4.126032848716932e-11</v>
       </c>
       <c r="W11" t="n">
-        <v>1.343360311878428e-08</v>
+        <v>4.126032848716932e-11</v>
       </c>
       <c r="X11" t="n">
-        <v>23.44556556556608</v>
+        <v>22.76740740740785</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.57885885885931</v>
+        <v>20.70222222222263</v>
       </c>
       <c r="Z11" t="n">
-        <v>26.31227227227285</v>
+        <v>24.83259259259308</v>
       </c>
     </row>
     <row r="12">
@@ -1425,7 +1425,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25.57000000000056</v>
+        <v>25.16000000000049</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0003774155434779214</v>
+        <v>0.02392803073724981</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0003774155434779214</v>
+        <v>0.02392803073724981</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>49.99117564740313</v>
+        <v>32.34759211015023</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[19.417172429042694, 80.56517886576356]</t>
+          <t>[2.4771640818600815, 62.21802013844038]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.001933946849623336</v>
+        <v>0.03443939719752809</v>
       </c>
       <c r="O12" t="n">
-        <v>0.001933946849623336</v>
+        <v>0.03443939719752809</v>
       </c>
       <c r="P12" t="n">
-        <v>0.7232895999255788</v>
+        <v>0.4088158608275014</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.144657919985117, 1.3019212798660407]</t>
+          <t>[-0.8176317216550011, 1.635263443310004]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.01544312383558455</v>
+        <v>0.5054182016255235</v>
       </c>
       <c r="S12" t="n">
-        <v>0.01544312383558455</v>
+        <v>0.5054182016255235</v>
       </c>
       <c r="T12" t="n">
-        <v>56.81628413585418</v>
+        <v>82.46600669617574</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[40.735878347014555, 72.89668992469382]</t>
+          <t>[66.6630592740903, 98.26895411826118]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>6.851013312214604e-09</v>
+        <v>1.068034549689401e-13</v>
       </c>
       <c r="W12" t="n">
-        <v>6.851013312214604e-09</v>
+        <v>1.068034549689401e-13</v>
       </c>
       <c r="X12" t="n">
-        <v>22.626506506507</v>
+        <v>23.52296296296342</v>
       </c>
       <c r="Y12" t="n">
-        <v>20.27171171171215</v>
+        <v>18.61185185185221</v>
       </c>
       <c r="Z12" t="n">
-        <v>24.98130130130184</v>
+        <v>28.43407407407463</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.57000000000056</v>
+        <v>25.16000000000049</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02620420158826309</v>
+        <v>0.05009063325887309</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02620420158826309</v>
+        <v>0.05009063325887309</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>31.45137242413381</v>
+        <v>28.80324128715327</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[3.360597484164529, 59.54214736410309]</t>
+          <t>[0.9987157750702664, 56.607766799236266]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.02904136292957737</v>
+        <v>0.04263515866661316</v>
       </c>
       <c r="O13" t="n">
-        <v>0.02904136292957737</v>
+        <v>0.04263515866661316</v>
       </c>
       <c r="P13" t="n">
-        <v>0.2201316173686543</v>
+        <v>-0.1635263443310002</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-1.0063159651138474, 1.446579199851156]</t>
+          <t>[-1.528342372016657, 1.2012896833546565]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.7194133198031181</v>
+        <v>0.8104024676298298</v>
       </c>
       <c r="S13" t="n">
-        <v>0.7194133198031181</v>
+        <v>0.8104024676298298</v>
       </c>
       <c r="T13" t="n">
-        <v>51.42026844937412</v>
+        <v>60.85396861576457</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[36.01837585992875, 66.82216103881949]</t>
+          <t>[44.942869352805275, 76.76506787872387]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2.616010208456032e-08</v>
+        <v>9.352763008507736e-10</v>
       </c>
       <c r="W13" t="n">
-        <v>2.616010208456032e-08</v>
+        <v>9.352763008507736e-10</v>
       </c>
       <c r="X13" t="n">
-        <v>24.67415415415469</v>
+        <v>0.6548148148148272</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.68301301301344</v>
+        <v>-4.810370370370468</v>
       </c>
       <c r="Z13" t="n">
-        <v>29.66529529529594</v>
+        <v>6.120000000000123</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>25.57000000000056</v>
+        <v>25.16000000000049</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0006266365369481663</v>
+        <v>0.003163995396453179</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0006266365369481663</v>
+        <v>0.003163995396453179</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>45.97777895823688</v>
+        <v>42.58079502475405</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[21.201017272430818, 70.75454064404295]</t>
+          <t>[11.963136510116684, 73.19845353939141]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.0005222561081943411</v>
+        <v>0.007481667793551861</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0005222561081943411</v>
+        <v>0.007481667793551861</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.07547369738353815</v>
+        <v>-0.5157369321208467</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.7610264486173461, 0.6100790538502698]</t>
+          <t>[-1.2830528555201557, 0.2515789912784623]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.8255224858069221</v>
+        <v>0.1825793455432625</v>
       </c>
       <c r="S14" t="n">
-        <v>0.8255224858069221</v>
+        <v>0.1825793455432625</v>
       </c>
       <c r="T14" t="n">
-        <v>59.8339246276605</v>
+        <v>55.20369015609669</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[44.563268858350185, 75.10458039697082]</t>
+          <t>[38.49312398305152, 71.91425632914186]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>4.95724572502354e-10</v>
+        <v>3.331080900004224e-08</v>
       </c>
       <c r="W14" t="n">
-        <v>4.95724572502354e-10</v>
+        <v>3.331080900004224e-08</v>
       </c>
       <c r="X14" t="n">
-        <v>0.3071471471471519</v>
+        <v>2.065185185185225</v>
       </c>
       <c r="Y14" t="n">
-        <v>-2.482772772772826</v>
+        <v>-1.007407407407428</v>
       </c>
       <c r="Z14" t="n">
-        <v>3.09706706706713</v>
+        <v>5.137777777777878</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>25.57000000000056</v>
+        <v>25.16000000000049</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>4.434751015525151e-06</v>
+        <v>0.000197906060042552</v>
       </c>
       <c r="I15" t="n">
-        <v>4.434751015525151e-06</v>
+        <v>0.000197906060042552</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>49.07271084195533</v>
+        <v>49.81367318549564</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[24.35386159608575, 73.7915600878249]</t>
+          <t>[21.0599575526751, 78.56738881831618]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.0002343848190455855</v>
+        <v>0.001095451971135919</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0002343848190455855</v>
+        <v>0.001095451971135919</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.8050527720910781</v>
+        <v>-0.3773684869176925</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-1.2704739059562327, -0.33963163822592346]</t>
+          <t>[-1.0063159651138474, 0.2515789912784623]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.001113061579098629</v>
+        <v>0.2331817098504827</v>
       </c>
       <c r="S15" t="n">
-        <v>0.001113061579098629</v>
+        <v>0.2331817098504827</v>
       </c>
       <c r="T15" t="n">
-        <v>58.83363334368174</v>
+        <v>68.53763010341393</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[46.39645956243817, 71.27080712492531]</t>
+          <t>[53.08980277500997, 83.98545743181789]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>2.315481140158226e-12</v>
+        <v>1.560551687873613e-11</v>
       </c>
       <c r="W15" t="n">
-        <v>2.315481140158226e-12</v>
+        <v>1.560551687873613e-11</v>
       </c>
       <c r="X15" t="n">
-        <v>3.276236236236308</v>
+        <v>1.511111111111141</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.382162162162192</v>
+        <v>-1.007407407407427</v>
       </c>
       <c r="Z15" t="n">
-        <v>5.170310310310423</v>
+        <v>4.029629629629709</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>25.57000000000056</v>
+        <v>25.16000000000049</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.001702050472530026</v>
+        <v>3.946850681146863e-05</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001702050472530026</v>
+        <v>3.946850681146863e-05</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>39.25492906683507</v>
+        <v>57.0842718759442</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[13.162600731611207, 65.34725740205893]</t>
+          <t>[24.984844502388057, 89.18369924950034]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.004042103132747998</v>
+        <v>0.0008333832345486236</v>
       </c>
       <c r="O16" t="n">
-        <v>0.004042103132747998</v>
+        <v>0.0008333832345486236</v>
       </c>
       <c r="P16" t="n">
-        <v>-1.333368653775848</v>
+        <v>-0.8302106712189241</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-2.176158274558695, -0.49057903299300065]</t>
+          <t>[-1.3207897042119248, -0.33963163822592346]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.002617841292829048</v>
+        <v>0.001387214311825424</v>
       </c>
       <c r="S16" t="n">
-        <v>0.002617841292829048</v>
+        <v>0.001387214311825424</v>
       </c>
       <c r="T16" t="n">
-        <v>56.90328210451959</v>
+        <v>69.72282254360502</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[41.81654163478781, 71.99002257425137]</t>
+          <t>[53.4538562036862, 85.99178888352384]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>1.340309863095968e-09</v>
+        <v>4.227485028707179e-11</v>
       </c>
       <c r="W16" t="n">
-        <v>1.340309863095968e-09</v>
+        <v>4.227485028707179e-11</v>
       </c>
       <c r="X16" t="n">
-        <v>5.426266266266381</v>
+        <v>3.324444444444509</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.996456456456498</v>
+        <v>1.360000000000027</v>
       </c>
       <c r="Z16" t="n">
-        <v>8.856076076076265</v>
+        <v>5.288888888888993</v>
       </c>
     </row>
     <row r="17">
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>25.57000000000056</v>
+        <v>25.16000000000049</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.005963255280137414</v>
+        <v>0.001847314479934581</v>
       </c>
       <c r="I17" t="n">
-        <v>0.005963255280137414</v>
+        <v>0.001847314479934581</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>37.42690583922989</v>
+        <v>44.9345421989898</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[8.78917980726527, 66.0646318711945]</t>
+          <t>[12.951941388344736, 76.91714300963486]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.0115797912452289</v>
+        <v>0.006936350608587549</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0115797912452289</v>
+        <v>0.006936350608587549</v>
       </c>
       <c r="P17" t="n">
-        <v>-1.358526552903694</v>
+        <v>-1.094368612061309</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-2.3774214675814647, -0.339631638225923]</t>
+          <t>[-1.8239476867688493, -0.3647895373537695]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>0.01010638472671777</v>
+        <v>0.004142907235937576</v>
       </c>
       <c r="S17" t="n">
-        <v>0.01010638472671777</v>
+        <v>0.004142907235937576</v>
       </c>
       <c r="T17" t="n">
-        <v>62.34634018874353</v>
+        <v>65.77792098463671</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[46.08041183553249, 78.61226854195456]</t>
+          <t>[48.625553136787886, 82.93028883248553]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>8.838854093085047e-10</v>
+        <v>8.72093286474751e-10</v>
       </c>
       <c r="W17" t="n">
-        <v>8.838854093085047e-10</v>
+        <v>8.72093286474751e-10</v>
       </c>
       <c r="X17" t="n">
-        <v>5.528648648648769</v>
+        <v>4.382222222222307</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.382162162162191</v>
+        <v>1.460740740740766</v>
       </c>
       <c r="Z17" t="n">
-        <v>9.675135135135346</v>
+        <v>7.303703703703848</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_per_day_fixed_period_5_square_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_per_day_fixed_period_5_square_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.40000000000038</v>
+        <v>24.35000000000037</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.003285126899310598</v>
+        <v>3.060163030810248e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003285126899310598</v>
+        <v>3.060163030810248e-05</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>43.39236601246055</v>
+        <v>59.93393202619622</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[11.492355581141979, 75.29237644377912]</t>
+          <t>[32.997650152192975, 86.87021390019946]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.008784053259975666</v>
+        <v>5.054917205549181e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>0.008784053259975666</v>
+        <v>5.054917205549181e-05</v>
       </c>
       <c r="P2" t="n">
-        <v>1.880552959806502</v>
+        <v>1.515763422452732</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.0251843894597323, 2.7359215301532727]</t>
+          <t>[0.9497106920761924, 2.081816152829272]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>6.005660223218356e-05</v>
+        <v>2.458043792952225e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>6.005660223218356e-05</v>
+        <v>2.458043792952225e-06</v>
       </c>
       <c r="T2" t="n">
-        <v>67.75594785706234</v>
+        <v>71.13914436628482</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[50.511389023703096, 85.00050669042159]</t>
+          <t>[54.42308876973925, 87.8551999628304]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>4.605109626965032e-10</v>
+        <v>5.154965343479034e-11</v>
       </c>
       <c r="W2" t="n">
-        <v>4.605109626965032e-10</v>
+        <v>5.154965343479034e-11</v>
       </c>
       <c r="X2" t="n">
-        <v>17.09709709709736</v>
+        <v>18.47577577577606</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.77537537537559</v>
+        <v>16.28208208208233</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.41881881881913</v>
+        <v>20.66946946946979</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.40000000000038</v>
+        <v>24.35000000000037</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0001672739146648672</v>
+        <v>0.008216353266702892</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0001672739146648672</v>
+        <v>0.008216353266702892</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>46.61647243992373</v>
+        <v>34.5831647015715</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[23.836987983325443, 69.39595689652202]</t>
+          <t>[8.590121985455795, 60.576207417687215]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.0001593905079297908</v>
+        <v>0.01025686498675382</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0001593905079297908</v>
+        <v>0.01025686498675382</v>
       </c>
       <c r="P3" t="n">
-        <v>1.540921321580579</v>
+        <v>1.327079178993886</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.8868159442565782, 2.19502669890458]</t>
+          <t>[0.29560531475219154, 2.35855304323558]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.140964956409697e-05</v>
+        <v>0.01284433024842757</v>
       </c>
       <c r="S3" t="n">
-        <v>2.140964956409697e-05</v>
+        <v>0.01284433024842757</v>
       </c>
       <c r="T3" t="n">
-        <v>65.54795912818111</v>
+        <v>56.84149805725061</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[51.02596763827751, 80.0699506180847]</t>
+          <t>[41.71615848636439, 71.96683762813683]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>9.428013925116829e-12</v>
+        <v>1.471547106390858e-09</v>
       </c>
       <c r="W3" t="n">
-        <v>9.428013925116829e-12</v>
+        <v>1.471547106390858e-09</v>
       </c>
       <c r="X3" t="n">
-        <v>18.4160160160163</v>
+        <v>19.2070070070073</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.87587587587612</v>
+        <v>15.20960960960984</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.95615615615648</v>
+        <v>23.20440440440476</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.40000000000038</v>
+        <v>24.35000000000037</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0006593582691563071</v>
+        <v>0.001704273428416392</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0006593582691563071</v>
+        <v>0.001704273428416392</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>50.71990756660643</v>
+        <v>39.89812785664152</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[20.762409712208594, 80.67740542100427]</t>
+          <t>[15.552974090009826, 64.24328162327322]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.001381100063252649</v>
+        <v>0.001892439386555589</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001381100063252649</v>
+        <v>0.001892439386555589</v>
       </c>
       <c r="P4" t="n">
-        <v>1.729605565039425</v>
+        <v>1.490605523324887</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.0126054398958084, 2.446605690183042]</t>
+          <t>[0.672973801669885, 2.308237244979889]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.470907300338276e-05</v>
+        <v>0.0006366767958534414</v>
       </c>
       <c r="S4" t="n">
-        <v>1.470907300338276e-05</v>
+        <v>0.0006366767958534414</v>
       </c>
       <c r="T4" t="n">
-        <v>73.15109331207299</v>
+        <v>55.60766407584239</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[55.647963566725096, 90.65422305742088]</t>
+          <t>[40.72979163729363, 70.48553651439114]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>8.573475263062846e-11</v>
+        <v>1.691403461734353e-09</v>
       </c>
       <c r="W4" t="n">
-        <v>8.573475263062846e-11</v>
+        <v>1.691403461734353e-09</v>
       </c>
       <c r="X4" t="n">
-        <v>17.68328328328356</v>
+        <v>18.57327327327355</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.89889889889913</v>
+        <v>15.40460460460483</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.46766766766799</v>
+        <v>21.74194194194227</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.40000000000038</v>
+        <v>24.35000000000037</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.635254332112758e-06</v>
+        <v>0.004243485294312288</v>
       </c>
       <c r="I5" t="n">
-        <v>3.635254332112758e-06</v>
+        <v>0.004243485294312288</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>56.1577318512937</v>
+        <v>39.70415238645941</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[31.703318177992983, 80.61214552459441]</t>
+          <t>[10.691589622776775, 68.71671515014204]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.16741993040548e-05</v>
+        <v>0.008411909682443541</v>
       </c>
       <c r="O5" t="n">
-        <v>3.16741993040548e-05</v>
+        <v>0.008411909682443541</v>
       </c>
       <c r="P5" t="n">
-        <v>1.314500229429964</v>
+        <v>1.377394977249579</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.8239211964369622, 1.8050792624229652]</t>
+          <t>[0.47171060864711567, 2.283079345852042]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.429622063093717e-06</v>
+        <v>0.003691663376480303</v>
       </c>
       <c r="S5" t="n">
-        <v>2.429622063093717e-06</v>
+        <v>0.003691663376480303</v>
       </c>
       <c r="T5" t="n">
-        <v>62.31630113018866</v>
+        <v>60.21269437992009</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[48.417631016549834, 76.21497124382748]</t>
+          <t>[44.05187053637255, 76.37351822346763]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.147659745015517e-11</v>
+        <v>1.832769269682899e-09</v>
       </c>
       <c r="W5" t="n">
-        <v>1.147659745015517e-11</v>
+        <v>1.832769269682899e-09</v>
       </c>
       <c r="X5" t="n">
-        <v>19.29529529529559</v>
+        <v>19.0120120120123</v>
       </c>
       <c r="Y5" t="n">
-        <v>17.39019019019045</v>
+        <v>15.50210210210233</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.20040040040073</v>
+        <v>22.52192192192226</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.40000000000038</v>
+        <v>24.35000000000037</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.321969988021809e-05</v>
+        <v>3.71578594876576e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>1.321969988021809e-05</v>
+        <v>3.71578594876576e-05</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>55.02580616651166</v>
+        <v>42.72319169030694</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[28.7230499978985, 81.32856233512483]</t>
+          <t>[22.734075685566566, 62.712307695047315]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0001192583140161574</v>
+        <v>8.919925637318471e-05</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0001192583140161574</v>
+        <v>8.919925637318471e-05</v>
       </c>
       <c r="P6" t="n">
-        <v>1.239026532046425</v>
+        <v>1.427710775505271</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.6855527512338089, 1.7925003128590404]</t>
+          <t>[0.8365001460008861, 2.018921405009656]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>4.625540243385906e-05</v>
+        <v>1.445520873710748e-05</v>
       </c>
       <c r="S6" t="n">
-        <v>4.625540243385906e-05</v>
+        <v>1.445520873710748e-05</v>
       </c>
       <c r="T6" t="n">
-        <v>70.47888750646381</v>
+        <v>58.82441385594397</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[55.88685997199127, 85.07091504093634]</t>
+          <t>[46.77177698976378, 70.87705072212417]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.224575996161548e-12</v>
+        <v>8.870681966755001e-13</v>
       </c>
       <c r="W6" t="n">
-        <v>1.224575996161548e-12</v>
+        <v>8.870681966755001e-13</v>
       </c>
       <c r="X6" t="n">
-        <v>19.58838838838869</v>
+        <v>18.8170170170173</v>
       </c>
       <c r="Y6" t="n">
-        <v>17.43903903903931</v>
+        <v>16.52582582582608</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.73773773773807</v>
+        <v>21.10820820820853</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.40000000000038</v>
+        <v>24.35000000000037</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>7.706265641171939e-07</v>
+        <v>4.92787949332163e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>7.706265641171939e-07</v>
+        <v>4.92787949332163e-05</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>58.91559735725257</v>
+        <v>54.42432646498323</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[34.38365264197006, 83.44754207253507]</t>
+          <t>[27.123898665888234, 81.72475426407823]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.579460789691289e-05</v>
+        <v>0.0002224982463325809</v>
       </c>
       <c r="O7" t="n">
-        <v>1.579460789691289e-05</v>
+        <v>0.0002224982463325809</v>
       </c>
       <c r="P7" t="n">
-        <v>1.062921238151501</v>
+        <v>1.327079178993886</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.6100790538502698, 1.515763422452733]</t>
+          <t>[0.723289599925578, 1.9308687580621937]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.265579905924575e-05</v>
+        <v>6.029597441026269e-05</v>
       </c>
       <c r="S7" t="n">
-        <v>2.265579905924575e-05</v>
+        <v>6.029597441026269e-05</v>
       </c>
       <c r="T7" t="n">
-        <v>66.11476818162085</v>
+        <v>67.34027356654646</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[52.682081571134745, 79.54745479210695]</t>
+          <t>[51.730309262924365, 82.95023787016855]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>6.825651155395462e-13</v>
+        <v>3.505085111044082e-11</v>
       </c>
       <c r="W7" t="n">
-        <v>6.825651155395462e-13</v>
+        <v>3.505085111044082e-11</v>
       </c>
       <c r="X7" t="n">
-        <v>20.27227227227258</v>
+        <v>19.2070070070073</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.513713713714</v>
+        <v>16.86706706706732</v>
       </c>
       <c r="Z7" t="n">
-        <v>22.03083083083117</v>
+        <v>21.54694694694727</v>
       </c>
     </row>
     <row r="8">
@@ -1081,7 +1081,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.40000000000038</v>
+        <v>24.35000000000037</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002383904124362068</v>
+        <v>0.004732508351719233</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002383904124362068</v>
+        <v>0.004732508351719233</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>47.56572218281276</v>
+        <v>34.12512595465</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[13.153544339993758, 81.97790002563175]</t>
+          <t>[7.252638247208864, 60.997613662091126]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.007825448881497499</v>
+        <v>0.01397618311536841</v>
       </c>
       <c r="O8" t="n">
-        <v>0.007825448881497499</v>
+        <v>0.01397618311536841</v>
       </c>
       <c r="P8" t="n">
-        <v>1.13839493553504</v>
+        <v>0.5975001042863468</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.39623691126357663, 1.8805529598065043]</t>
+          <t>[-0.15723686954903826, 1.3522370781217319]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.003432684594046886</v>
+        <v>0.1178247936897325</v>
       </c>
       <c r="S8" t="n">
-        <v>0.003432684594046886</v>
+        <v>0.1178247936897325</v>
       </c>
       <c r="T8" t="n">
-        <v>66.8334712378827</v>
+        <v>50.6270583945444</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[48.56870198225353, 85.09824049351188]</t>
+          <t>[36.705404082264536, 64.54871270682426]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.890786943154922e-09</v>
+        <v>3.373779700055479e-09</v>
       </c>
       <c r="W8" t="n">
-        <v>2.890786943154922e-09</v>
+        <v>3.373779700055479e-09</v>
       </c>
       <c r="X8" t="n">
-        <v>19.97917917917949</v>
+        <v>22.03443443443477</v>
       </c>
       <c r="Y8" t="n">
-        <v>17.09709709709735</v>
+        <v>19.1095095095098</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.86126126126162</v>
+        <v>24.95935935935973</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.40000000000038</v>
+        <v>24.35000000000037</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1.540048131032368e-05</v>
+        <v>8.507576364613634e-06</v>
       </c>
       <c r="I9" t="n">
-        <v>1.540048131032368e-05</v>
+        <v>8.507576364613634e-06</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>60.96977595334259</v>
+        <v>64.93792529301673</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[32.602963672621, 89.33658823406418]</t>
+          <t>[33.357755324761094, 96.51809526127238]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>8.255989257954788e-05</v>
+        <v>0.0001497237312153565</v>
       </c>
       <c r="O9" t="n">
-        <v>8.255989257954788e-05</v>
+        <v>0.0001497237312153565</v>
       </c>
       <c r="P9" t="n">
-        <v>1.30192127986604</v>
+        <v>0.8490790955648082</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.77360539818127, 1.8302371615508095]</t>
+          <t>[0.3710790121357306, 1.3270791789938858]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>1.039288650894754e-05</v>
+        <v>0.0008436335378032567</v>
       </c>
       <c r="S9" t="n">
-        <v>1.039288650894754e-05</v>
+        <v>0.0008436335378032567</v>
       </c>
       <c r="T9" t="n">
-        <v>70.68859637873781</v>
+        <v>70.42598237061537</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[54.37047774591892, 87.00671501155671]</t>
+          <t>[53.71902002274352, 87.13294471848722]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>3.112177182629239e-11</v>
+        <v>6.742228997325128e-11</v>
       </c>
       <c r="W9" t="n">
-        <v>3.112177182629239e-11</v>
+        <v>6.742228997325128e-11</v>
       </c>
       <c r="X9" t="n">
-        <v>19.34414414414444</v>
+        <v>21.05945945945978</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.29249249249276</v>
+        <v>19.2070070070073</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.39579579579613</v>
+        <v>22.91191191191226</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.40000000000038</v>
+        <v>24.35000000000037</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>9.576862215288084e-05</v>
+        <v>0.01309639913409988</v>
       </c>
       <c r="I10" t="n">
-        <v>9.576862215288084e-05</v>
+        <v>0.01309639913409988</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>66.93069013852751</v>
+        <v>35.74825197311353</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[27.68252613348865, 106.17885414356637]</t>
+          <t>[3.961370323573277, 67.53513362265377]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.001285293742564475</v>
+        <v>0.02836887032374835</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001285293742564475</v>
+        <v>0.02836887032374835</v>
       </c>
       <c r="P10" t="n">
-        <v>0.7736053981812701</v>
+        <v>1.000026490331886</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.24528951649650033, 1.3019212798660398]</t>
+          <t>[0.144657919985117, 1.8553950606786556]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.00503878234703703</v>
+        <v>0.0229588716354816</v>
       </c>
       <c r="S10" t="n">
-        <v>0.00503878234703703</v>
+        <v>0.0229588716354816</v>
       </c>
       <c r="T10" t="n">
-        <v>77.32097978681492</v>
+        <v>63.64258167902087</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[57.455430747217775, 97.18652882641206]</t>
+          <t>[47.16161654818532, 80.12354680985642]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>5.912093037352406e-10</v>
+        <v>7.276899083308308e-10</v>
       </c>
       <c r="W10" t="n">
-        <v>5.912093037352406e-10</v>
+        <v>7.276899083308308e-10</v>
       </c>
       <c r="X10" t="n">
-        <v>21.39579579579613</v>
+        <v>20.47447447447478</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.34414414414444</v>
+        <v>17.15955955955982</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.44744744744781</v>
+        <v>23.78938938938974</v>
       </c>
     </row>
     <row r="11">
@@ -1339,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.16000000000049</v>
+        <v>25.38000000000053</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.302056019314435e-05</v>
+        <v>0.005132163217973384</v>
       </c>
       <c r="I11" t="n">
-        <v>1.302056019314435e-05</v>
+        <v>0.005132163217973384</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>60.27153630326009</v>
+        <v>42.74962202240529</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[30.534505680421972, 90.00856692609821]</t>
+          <t>[10.0060903246398, 75.49315372017078]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.0001804371755373957</v>
+        <v>0.01165828036282868</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0001804371755373957</v>
+        <v>0.01165828036282868</v>
       </c>
       <c r="P11" t="n">
-        <v>0.5975001042863477</v>
+        <v>0.6226580034141938</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.081763172165501, 1.1132370364071944]</t>
+          <t>[-0.1320789704211922, 1.3773949772495797]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.02415399698355269</v>
+        <v>0.1035380152991765</v>
       </c>
       <c r="S11" t="n">
-        <v>0.02415399698355269</v>
+        <v>0.1035380152991765</v>
       </c>
       <c r="T11" t="n">
-        <v>66.97466300657905</v>
+        <v>70.38785012062161</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[51.36029852653053, 82.58902748662757]</t>
+          <t>[53.098124705501064, 87.67757553574215]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>4.126032848716932e-11</v>
+        <v>1.769164814646729e-10</v>
       </c>
       <c r="W11" t="n">
-        <v>4.126032848716932e-11</v>
+        <v>1.769164814646729e-10</v>
       </c>
       <c r="X11" t="n">
-        <v>22.76740740740785</v>
+        <v>22.86486486486534</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.70222222222263</v>
+        <v>19.81621621621663</v>
       </c>
       <c r="Z11" t="n">
-        <v>24.83259259259308</v>
+        <v>25.91351351351405</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25.16000000000049</v>
+        <v>25.38000000000053</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02392803073724981</v>
+        <v>0.0005757149562286568</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02392803073724981</v>
+        <v>0.0005757149562286568</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>32.34759211015023</v>
+        <v>46.14483211022812</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[2.4771640818600815, 62.21802013844038]</t>
+          <t>[17.46970734594119, 74.81995687451506]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.03443939719752809</v>
+        <v>0.002243215531074982</v>
       </c>
       <c r="O12" t="n">
-        <v>0.03443939719752809</v>
+        <v>0.002243215531074982</v>
       </c>
       <c r="P12" t="n">
-        <v>0.4088158608275014</v>
+        <v>0.5094474573388847</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-0.8176317216550011, 1.635263443310004]</t>
+          <t>[-0.132078970421194, 1.1509738850989635]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.5054182016255235</v>
+        <v>0.1167224627900203</v>
       </c>
       <c r="S12" t="n">
-        <v>0.5054182016255235</v>
+        <v>0.1167224627900203</v>
       </c>
       <c r="T12" t="n">
-        <v>82.46600669617574</v>
+        <v>59.16999859019575</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[66.6630592740903, 98.26895411826118]</t>
+          <t>[43.92376679933062, 74.41623038106087]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.068034549689401e-13</v>
+        <v>6.38073149872298e-10</v>
       </c>
       <c r="W12" t="n">
-        <v>1.068034549689401e-13</v>
+        <v>6.38073149872298e-10</v>
       </c>
       <c r="X12" t="n">
-        <v>23.52296296296342</v>
+        <v>23.32216216216265</v>
       </c>
       <c r="Y12" t="n">
-        <v>18.61185185185221</v>
+        <v>20.73081081081124</v>
       </c>
       <c r="Z12" t="n">
-        <v>28.43407407407463</v>
+        <v>25.91351351351406</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.16000000000049</v>
+        <v>25.38000000000053</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05009063325887309</v>
+        <v>9.283290015371648e-06</v>
       </c>
       <c r="I13" t="n">
-        <v>0.05009063325887309</v>
+        <v>9.283290015371648e-06</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>28.80324128715327</v>
+        <v>52.58572156701045</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[0.9987157750702664, 56.607766799236266]</t>
+          <t>[27.73322830831438, 77.43821482570651]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.04263515866661316</v>
+        <v>0.0001023474993513407</v>
       </c>
       <c r="O13" t="n">
-        <v>0.04263515866661316</v>
+        <v>0.0001023474993513407</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.1635263443310002</v>
+        <v>-0.3396316382259235</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-1.528342372016657, 1.2012896833546565]</t>
+          <t>[-0.8679475199106932, 0.18868424345884627]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.8104024676298298</v>
+        <v>0.2020001843062662</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8104024676298298</v>
+        <v>0.2020001843062662</v>
       </c>
       <c r="T13" t="n">
-        <v>60.85396861576457</v>
+        <v>62.69065576833809</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[44.942869352805275, 76.76506787872387]</t>
+          <t>[49.23894060583646, 76.14237093083972]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>9.352763008507736e-10</v>
+        <v>3.635980405647388e-12</v>
       </c>
       <c r="W13" t="n">
-        <v>9.352763008507736e-10</v>
+        <v>3.635980405647388e-12</v>
       </c>
       <c r="X13" t="n">
-        <v>0.6548148148148272</v>
+        <v>1.37189189189192</v>
       </c>
       <c r="Y13" t="n">
-        <v>-4.810370370370468</v>
+        <v>-0.762162162162177</v>
       </c>
       <c r="Z13" t="n">
-        <v>6.120000000000123</v>
+        <v>3.505945945946017</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>25.16000000000049</v>
+        <v>25.38000000000053</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.003163995396453179</v>
+        <v>0.004518756143157776</v>
       </c>
       <c r="I14" t="n">
-        <v>0.003163995396453179</v>
+        <v>0.004518756143157776</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>42.58079502475405</v>
+        <v>36.29463130006136</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[11.963136510116684, 73.19845353939141]</t>
+          <t>[11.305237941106462, 61.28402465901626]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.007481667793551861</v>
+        <v>0.005375000913734773</v>
       </c>
       <c r="O14" t="n">
-        <v>0.007481667793551861</v>
+        <v>0.005375000913734773</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.5157369321208467</v>
+        <v>-0.1761052938949232</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-1.2830528555201557, 0.2515789912784623]</t>
+          <t>[-1.0440528138056173, 0.6918422260157708]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.1825793455432625</v>
+        <v>0.6847284753832743</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1825793455432625</v>
+        <v>0.6847284753832743</v>
       </c>
       <c r="T14" t="n">
-        <v>55.20369015609669</v>
+        <v>61.63869238587637</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[38.49312398305152, 71.91425632914186]</t>
+          <t>[47.12715475118776, 76.15023002056498]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>3.331080900004224e-08</v>
+        <v>5.442557515777935e-11</v>
       </c>
       <c r="W14" t="n">
-        <v>3.331080900004224e-08</v>
+        <v>5.442557515777935e-11</v>
       </c>
       <c r="X14" t="n">
-        <v>2.065185185185225</v>
+        <v>0.7113513513513645</v>
       </c>
       <c r="Y14" t="n">
-        <v>-1.007407407407428</v>
+        <v>-2.794594594594656</v>
       </c>
       <c r="Z14" t="n">
-        <v>5.137777777777878</v>
+        <v>4.217297297297385</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>25.16000000000049</v>
+        <v>25.38000000000053</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.000197906060042552</v>
+        <v>0.0003435517227360352</v>
       </c>
       <c r="I15" t="n">
-        <v>0.000197906060042552</v>
+        <v>0.0003435517227360352</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>49.81367318549564</v>
+        <v>54.09470441914247</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[21.0599575526751, 78.56738881831618]</t>
+          <t>[21.17186290232212, 87.01754593596283]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.001095451971135919</v>
+        <v>0.001846901018897062</v>
       </c>
       <c r="O15" t="n">
-        <v>0.001095451971135919</v>
+        <v>0.001846901018897062</v>
       </c>
       <c r="P15" t="n">
         <v>-0.3773684869176925</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-1.0063159651138474, 0.2515789912784623]</t>
+          <t>[-1.0188949146777704, 0.2641579408423853]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.2331817098504827</v>
+        <v>0.2423293178954438</v>
       </c>
       <c r="S15" t="n">
-        <v>0.2331817098504827</v>
+        <v>0.2423293178954438</v>
       </c>
       <c r="T15" t="n">
-        <v>68.53763010341393</v>
+        <v>67.90880214773748</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[53.08980277500997, 83.98545743181789]</t>
+          <t>[50.46975053077115, 85.3478537647038]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>1.560551687873613e-11</v>
+        <v>5.838431960114576e-10</v>
       </c>
       <c r="W15" t="n">
-        <v>1.560551687873613e-11</v>
+        <v>5.838431960114576e-10</v>
       </c>
       <c r="X15" t="n">
-        <v>1.511111111111141</v>
+        <v>1.524324324324354</v>
       </c>
       <c r="Y15" t="n">
-        <v>-1.007407407407427</v>
+        <v>-1.067027027027051</v>
       </c>
       <c r="Z15" t="n">
-        <v>4.029629629629709</v>
+        <v>4.115675675675759</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>25.16000000000049</v>
+        <v>25.38000000000053</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>3.946850681146863e-05</v>
+        <v>0.007788630453266721</v>
       </c>
       <c r="I16" t="n">
-        <v>3.946850681146863e-05</v>
+        <v>0.007788630453266721</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>57.0842718759442</v>
+        <v>44.56740680805481</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[24.984844502388057, 89.18369924950034]</t>
+          <t>[7.30155514644013, 81.83325846966949]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.0008333832345486236</v>
+        <v>0.02016453672890939</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0008333832345486236</v>
+        <v>0.02016453672890939</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.8302106712189241</v>
+        <v>-0.8176317216550011</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-1.3207897042119248, -0.33963163822592346]</t>
+          <t>[-1.522052897234694, -0.11321054607530812]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.001387214311825424</v>
+        <v>0.02390356535310678</v>
       </c>
       <c r="S16" t="n">
-        <v>0.001387214311825424</v>
+        <v>0.02390356535310678</v>
       </c>
       <c r="T16" t="n">
-        <v>69.72282254360502</v>
+        <v>62.52893586190169</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[53.4538562036862, 85.99178888352384]</t>
+          <t>[42.94908595677437, 82.108785767029]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>4.227485028707179e-11</v>
+        <v>7.113641342648691e-08</v>
       </c>
       <c r="W16" t="n">
-        <v>4.227485028707179e-11</v>
+        <v>7.113641342648691e-08</v>
       </c>
       <c r="X16" t="n">
-        <v>3.324444444444509</v>
+        <v>3.302702702702771</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.360000000000027</v>
+        <v>0.4572972972973073</v>
       </c>
       <c r="Z16" t="n">
-        <v>5.288888888888993</v>
+        <v>6.148108108108234</v>
       </c>
     </row>
     <row r="17">
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>25.16000000000049</v>
+        <v>25.38000000000053</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.001847314479934581</v>
+        <v>0.001514142195257806</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001847314479934581</v>
+        <v>0.001514142195257806</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>44.9345421989898</v>
+        <v>46.9037893941187</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[12.951941388344736, 76.91714300963486]</t>
+          <t>[15.931249862767544, 77.87632892546986]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.006936350608587549</v>
+        <v>0.003826531173024561</v>
       </c>
       <c r="O17" t="n">
-        <v>0.006936350608587549</v>
+        <v>0.003826531173024561</v>
       </c>
       <c r="P17" t="n">
-        <v>-1.094368612061309</v>
+        <v>-1.773631888513156</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-1.8239476867688493, -0.3647895373537695]</t>
+          <t>[-2.5912636101681574, -0.9560001668581553]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>0.004142907235937576</v>
+        <v>7.260958226473768e-05</v>
       </c>
       <c r="S17" t="n">
-        <v>0.004142907235937576</v>
+        <v>7.260958226473768e-05</v>
       </c>
       <c r="T17" t="n">
-        <v>65.77792098463671</v>
+        <v>64.42657789757821</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[48.625553136787886, 82.93028883248553]</t>
+          <t>[46.85955006586694, 81.99360572928948]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>8.72093286474751e-10</v>
+        <v>2.730784487425808e-09</v>
       </c>
       <c r="W17" t="n">
-        <v>8.72093286474751e-10</v>
+        <v>2.730784487425808e-09</v>
       </c>
       <c r="X17" t="n">
-        <v>4.382222222222307</v>
+        <v>7.164324324324472</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.460740740740766</v>
+        <v>3.861621621621701</v>
       </c>
       <c r="Z17" t="n">
-        <v>7.303703703703848</v>
+        <v>10.46702702702724</v>
       </c>
     </row>
   </sheetData>
